--- a/data/trans_dic/P16-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P16-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>37,98; 47,17</t>
+          <t>37,58; 46,97</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>44,2; 54,2</t>
+          <t>44,64; 54,39</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>47,91; 58,06</t>
+          <t>47,84; 58,09</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>51,16; 59,8</t>
+          <t>51,29; 60,36</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>48,13; 59,93</t>
+          <t>48,16; 59,42</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>55,39; 66,62</t>
+          <t>55,16; 66,5</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>50,28; 60,68</t>
+          <t>50,03; 60,8</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>54,35; 62,4</t>
+          <t>54,63; 62,72</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>43,46; 50,78</t>
+          <t>43,36; 50,84</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>50,41; 57,91</t>
+          <t>50,03; 58,07</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>49,97; 57,7</t>
+          <t>50,17; 57,78</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>54,2; 60,2</t>
+          <t>53,96; 60,26</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>34,77; 44,9</t>
+          <t>34,35; 45,19</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>44,61; 55,37</t>
+          <t>44,53; 55,44</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>44,66; 55,29</t>
+          <t>44,97; 55,5</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>49,07; 59,5</t>
+          <t>49,53; 59,81</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>48,43; 58,1</t>
+          <t>48,41; 58,81</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>57,86; 69,19</t>
+          <t>57,59; 68,82</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>51,06; 61,69</t>
+          <t>50,46; 61,4</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>54,12; 62,71</t>
+          <t>54,04; 62,67</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>42,7; 50,19</t>
+          <t>42,71; 50,18</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>52,31; 60,2</t>
+          <t>52,18; 60,17</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>49,58; 56,71</t>
+          <t>49,8; 56,87</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>53,05; 59,69</t>
+          <t>52,85; 59,69</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>36,64; 45,39</t>
+          <t>36,6; 45,17</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>51,48; 59,72</t>
+          <t>51,57; 59,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>51,13; 59,9</t>
+          <t>51,91; 60,33</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>14,56; 59,03</t>
+          <t>13,68; 59,55</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>46,86; 61,82</t>
+          <t>46,21; 61,47</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>61,12; 73,27</t>
+          <t>59,61; 72,21</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>62,39; 76,73</t>
+          <t>63,17; 76,65</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>67,75; 78,62</t>
+          <t>67,76; 78,89</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>40,06; 47,24</t>
+          <t>40,13; 47,83</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>55,58; 62,09</t>
+          <t>55,31; 62,49</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>55,19; 62,93</t>
+          <t>55,49; 63,02</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>18,21; 63,12</t>
+          <t>19,09; 63,82</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>42,22; 47,82</t>
+          <t>42,3; 48,04</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>49,63; 55,82</t>
+          <t>49,56; 55,62</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>49,13; 54,9</t>
+          <t>49,1; 54,89</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>51,51; 58,81</t>
+          <t>51,87; 58,62</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>50,0; 57,42</t>
+          <t>50,37; 57,58</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>63,99; 71,27</t>
+          <t>63,97; 71,02</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>54,77; 61,74</t>
+          <t>55,21; 61,79</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>61,74; 84,58</t>
+          <t>61,72; 84,43</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>46,02; 50,49</t>
+          <t>46,22; 50,9</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>56,13; 61,01</t>
+          <t>56,34; 60,99</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>52,48; 57,03</t>
+          <t>52,31; 56,8</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>57,68; 74,31</t>
+          <t>57,38; 72,87</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>35,53; 46,21</t>
+          <t>35,55; 45,93</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>45,77; 54,72</t>
+          <t>46,25; 54,88</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>46,69; 54,34</t>
+          <t>46,04; 54,76</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>50,26; 60,1</t>
+          <t>50,51; 60,23</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>57,54; 65,69</t>
+          <t>57,24; 65,5</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>72,56; 78,87</t>
+          <t>72,45; 79,08</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>68,81; 75,11</t>
+          <t>68,69; 75,45</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>62,01; 77,38</t>
+          <t>62,77; 76,89</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>50,62; 57,36</t>
+          <t>50,19; 56,82</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>62,95; 68,05</t>
+          <t>62,96; 68,35</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>59,96; 64,99</t>
+          <t>59,49; 65,0</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>60,67; 70,6</t>
+          <t>59,87; 70,55</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>14,28; 22,81</t>
+          <t>14,59; 23,68</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>25,29; 36,53</t>
+          <t>24,74; 36,76</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>19,5; 30,17</t>
+          <t>19,55; 29,78</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>18,06; 37,71</t>
+          <t>17,55; 37,77</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>60,44; 65,78</t>
+          <t>60,35; 65,88</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>70,77; 76,14</t>
+          <t>70,89; 76,26</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>66,78; 72,6</t>
+          <t>67,04; 72,83</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>59,12; 66,44</t>
+          <t>59,4; 66,43</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>51,93; 57,02</t>
+          <t>52,01; 56,82</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>62,44; 67,77</t>
+          <t>62,4; 67,57</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>57,66; 63,18</t>
+          <t>57,67; 63,34</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>50,54; 58,18</t>
+          <t>49,97; 57,87</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>38,86; 42,34</t>
+          <t>38,71; 42,36</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>48,62; 52,03</t>
+          <t>48,7; 52,38</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>47,99; 51,49</t>
+          <t>48,12; 51,64</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>36,87; 54,03</t>
+          <t>38,02; 53,97</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>56,89; 60,19</t>
+          <t>56,78; 60,25</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>68,64; 71,77</t>
+          <t>68,66; 71,84</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>63,18; 66,44</t>
+          <t>63,15; 66,26</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>62,96; 72,24</t>
+          <t>63,25; 72,88</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>48,53; 51,05</t>
+          <t>48,6; 50,98</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>59,28; 61,66</t>
+          <t>59,27; 61,62</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>56,24; 58,66</t>
+          <t>56,33; 58,86</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>51,39; 61,7</t>
+          <t>51,68; 61,81</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha utilizado algún tipo de medicamento en las últimas dos semanas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>330</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>417</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>359</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>364</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>389</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>747</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>200536</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>215062</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>226911</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>281075</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>165954</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>192332</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>192259</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>261879</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>366491</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>407394</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>419171</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>542954</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>178051; 222538</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>195164; 237810</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>205276; 249260</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>259113; 304938</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>147691; 182218</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>173438; 209111</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>173629; 210995</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>244450; 280664</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>338369; 396808</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>376091; 436472</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>389423; 448444</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>514053; 574050</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>286</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>363</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>337</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>380</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>649</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>145937</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>208641</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>188924</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>247223</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>198289</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>215316</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>209502</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>222928</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>344227</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>423957</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>398426</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>470151</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>126058; 165814</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>185690; 231213</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>169651; 209368</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>223967; 270470</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>180012; 218706</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>194110; 231930</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>187861; 228589</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>206727; 239747</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>315544; 370731</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>393430; 453740</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>373258; 426276</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>441204; 498312</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>282</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>486</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>386</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>517</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>221357</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>349869</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>291233</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>245448</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>90603</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>175360</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>116231</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>122554</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>311960</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>525229</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>407463</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>368002</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>198500; 245012</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>324029; 374431</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>270930; 314845</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>91394; 397934</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>77525; 103130</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>155064; 187851</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>104944; 127329</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>113103; 131679</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>284974; 339679</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>491437; 555223</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>381818; 433616</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>159448; 533030</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>569</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>562</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>575</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>696</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>381</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>478</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>456</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>826</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>950</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1040</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>1031</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>1522</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>559396</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>609337</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>597451</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>570263</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>384157</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>517746</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>481684</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>690226</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>943554</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1127084</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>1079135</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>1260489</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>523797; 594864</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>573974; 644205</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>564514; 631064</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>536747; 606651</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>359804; 411265</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>490419; 544496</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>455994; 510327</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>603660; 825807</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>902447; 993931</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>1084350; 1173932</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>1033348; 1122081</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>1154967; 1466873</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>243</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>307</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>307</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>535</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>496</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>950</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>474</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>803</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>1257</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>142305</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>257888</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>312323</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>263456</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>350943</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>576189</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>532632</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>596349</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>493248</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>834078</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>844955</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>859804</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>124278; 160556</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>236147; 280210</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>285803; 339909</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>239956; 286118</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>325557; 372529</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>550943; 601427</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>507124; 557039</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>526642; 645143</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>460909; 521806</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>800222; 868742</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>808376; 883328</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>786709; 927061</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>773</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>762</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>670</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>825</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>831</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>840</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>736</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>859</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>55402</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>80521</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>70379</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>63832</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>788455</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>813681</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>755692</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>477623</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>843857</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>894203</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>826071</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>541454</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>43522; 70604</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>65760; 97723</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>56128; 85518</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>42219; 90843</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>753653; 822695</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>785811; 845289</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>725377; 788065</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>451494; 504946</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>804545; 878940</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>857568; 928636</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>789546; 867166</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>500056; 579115</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>1332</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>1583</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>1619</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>1954</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>1932</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>2305</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>2101</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>3597</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>3264</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>3888</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>3720</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>5551</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>1324934</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>1721318</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>1687221</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>1671297</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>1978402</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>2490626</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>2287999</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>2371557</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>3303336</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>4211945</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>3975220</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>4042855</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>1265605; 1384678</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>1664151; 1789781</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>1629271; 1748449</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>1283454; 1822196</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>1918162; 2035458</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>2435455; 2548377</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>2230070; 2339965</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>2260529; 2604887</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>3230812; 3388591</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>4128087; 4291446</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>3896300; 4071503</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>3591701; 4295853</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P16-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P16-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
